--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1643237.350222941</v>
+        <v>-1646106.778066261</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>283.2502426857016</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>47.40756395296697</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -814,19 +814,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>134.0073591209439</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9.790440613649183</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>186.3579819607</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>165.8404403681493</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>46.49527385100468</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>14.48345164522491</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>206.0181681025915</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>43.01221155544282</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>162.9438388566356</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>25.70027404169409</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>247.1782781045368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>130.1208074460236</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1771,16 +1771,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>105.9893107373045</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,10 +2062,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>216.5778877258788</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="21">
@@ -2245,19 +2245,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>240.3363440419458</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,16 +2770,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>211.8793091068253</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2953,22 +2953,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G31" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652609</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G34" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
         <v>261.8998268972044</v>
@@ -3721,10 +3721,10 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1376.372217881286</v>
+        <v>1321.530002831497</v>
       </c>
       <c r="C2" t="n">
-        <v>1376.372217881286</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2649.262662782902</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2395.500877420994</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2064.437990077423</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1711.669334807309</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1711.669334807309</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1321.530002831497</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>358.2401335573056</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="C4" t="n">
-        <v>189.3039506293987</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="D4" t="n">
-        <v>189.3039506293987</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>2032.852422585334</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>2032.852422585334</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>2032.852422585334</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>2032.852422585334</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>539.8885983875454</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>539.8885983875454</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X4" t="n">
-        <v>539.8885983875454</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y4" t="n">
-        <v>539.8885983875454</v>
+        <v>2179.742370083244</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.778685247039</v>
+        <v>927.7879015331887</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>760.2723052017247</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V5" t="n">
-        <v>1717.512263598976</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W5" t="n">
-        <v>1364.743608328862</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X5" t="n">
-        <v>1317.778685247039</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="Y5" t="n">
-        <v>1317.778685247039</v>
+        <v>1314.38774159731</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,19 +4647,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.57273095695527</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>490.6129053604687</v>
       </c>
       <c r="V7" t="n">
-        <v>68.57273095695527</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="W7" t="n">
-        <v>68.57273095695527</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="X7" t="n">
-        <v>68.57273095695527</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="Y7" t="n">
-        <v>68.57273095695527</v>
+        <v>235.9284171545819</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1927.467999148197</v>
+        <v>1944.29373480603</v>
       </c>
       <c r="C8" t="n">
-        <v>1558.505482207785</v>
+        <v>1944.29373480603</v>
       </c>
       <c r="D8" t="n">
-        <v>1200.239783601035</v>
+        <v>1586.028036199279</v>
       </c>
       <c r="E8" t="n">
         <v>1200.239783601035</v>
@@ -4808,19 +4808,19 @@
         <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>1198.863252100346</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1385.562664925753</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>2004.269440980023</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2551.430645747101</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996627</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
         <v>2697.149091018222</v>
@@ -4832,22 +4832,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2482.349229285934</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748108</v>
+        <v>2317.75949306711</v>
       </c>
       <c r="X8" t="n">
-        <v>1970.914677487028</v>
+        <v>1944.29373480603</v>
       </c>
       <c r="Y8" t="n">
-        <v>1970.914677487028</v>
+        <v>1944.29373480603</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>172.6022336772601</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>240.2100533406172</v>
+        <v>383.3713861261743</v>
       </c>
       <c r="L9" t="n">
-        <v>377.4396513563111</v>
+        <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1017.985000823416</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>1726.935017112062</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2276.371025864785</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>350.5838873056357</v>
+        <v>396.7521311000525</v>
       </c>
       <c r="C10" t="n">
-        <v>350.5838873056357</v>
+        <v>227.8159481721455</v>
       </c>
       <c r="D10" t="n">
-        <v>350.5838873056357</v>
+        <v>227.8159481721455</v>
       </c>
       <c r="E10" t="n">
-        <v>350.5838873056357</v>
+        <v>79.90285458975242</v>
       </c>
       <c r="F10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>350.5838873056357</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>196.3292442054008</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>71.81756957972706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>1053.877663279709</v>
       </c>
       <c r="T10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="U10" t="n">
-        <v>828.2484665920741</v>
+        <v>1053.877663279709</v>
       </c>
       <c r="V10" t="n">
-        <v>828.2484665920741</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="W10" t="n">
-        <v>578.573438203653</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="X10" t="n">
-        <v>350.5838873056357</v>
+        <v>799.1931750738223</v>
       </c>
       <c r="Y10" t="n">
-        <v>350.5838873056357</v>
+        <v>578.4005959302922</v>
       </c>
     </row>
     <row r="11">
@@ -5021,28 +5021,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,7 +5051,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5078,10 +5078,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>513.8536007400717</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5197,52 +5197,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5279,10 +5279,10 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075817</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014779</v>
@@ -5294,10 +5294,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5352,25 +5352,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5501,37 +5501,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5601,13 +5601,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>705.9324428257312</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2272.857469997002</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>1108.373486799501</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>887.5809076559709</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5741,58 +5741,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>194.8007783998286</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="23">
@@ -5975,28 +5975,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355937</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.079034721979</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6218,10 +6218,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6300,22 +6300,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
         <v>1896.176478190825</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6409,25 +6409,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1113.119525808646</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150027</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345479</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6686,19 +6686,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580119</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K37" t="n">
         <v>483.8255460380728</v>
@@ -7117,25 +7117,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7160,7 +7160,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O39" t="n">
         <v>1896.176478190825</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7400,16 +7400,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.3734194384019</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>315.9123021921482</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>913.2907898187001</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1540.888753373307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319315</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656809</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150014</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942646</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580106</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345468</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7825,31 +7825,31 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931272</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747122</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992665</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,22 +8456,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>428.6591547093815</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>217.7061247386729</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.48359897777897</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>88.07043013889199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,13 +22607,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.42660352562526</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,10 +23419,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182141</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>16.31315520054554</v>
+        <v>24.63391537253447</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23659,16 +23659,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>40.64330621514819</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>75.03697526434014</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,10 +23950,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>9.131767663158399</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>40.32043864788574</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>45.84813034729834</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,16 +24658,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>13.83034628221182</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>-5.704326028209812e-13</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-7.247535904753022e-13</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1131844.705727231</v>
+        <v>1131844.70572723</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1296314.111224108</v>
+        <v>1296314.111224109</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1296314.111224108</v>
+        <v>1296314.111224109</v>
       </c>
     </row>
     <row r="11">
@@ -26317,7 +26317,7 @@
         <v>123156.2654796425</v>
       </c>
       <c r="D2" t="n">
-        <v>123156.2654796426</v>
+        <v>123156.2654796425</v>
       </c>
       <c r="E2" t="n">
         <v>121071.9899535009</v>
@@ -26341,7 +26341,7 @@
         <v>123156.2654796424</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363179</v>
       </c>
     </row>
     <row r="4">
@@ -26424,37 +26424,37 @@
         <v>176266.9759012794</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682754</v>
       </c>
       <c r="F4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
+        <v>5677.536566682729</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5677.536566682724</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682744</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
         <v>5677.536566682744</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682752</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5677.536566682764</v>
       </c>
       <c r="K4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="L4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977622</v>
       </c>
       <c r="M4" t="n">
-        <v>13668.39582977623</v>
+        <v>13668.39582977624</v>
       </c>
       <c r="N4" t="n">
         <v>13668.39582977623</v>
       </c>
       <c r="O4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="P4" t="n">
         <v>13668.39582977621</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-693142.0461485038</v>
+        <v>-693536.8670896569</v>
       </c>
       <c r="C6" t="n">
-        <v>-169625.2280468003</v>
+        <v>-169625.2280468002</v>
       </c>
       <c r="D6" t="n">
         <v>-325429.0341405952</v>
       </c>
       <c r="E6" t="n">
-        <v>-756780.7678178954</v>
+        <v>-756815.5057433309</v>
       </c>
       <c r="F6" t="n">
-        <v>14271.92356291106</v>
+        <v>14237.18563747537</v>
       </c>
       <c r="G6" t="n">
-        <v>14271.92356291106</v>
+        <v>14237.1856374754</v>
       </c>
       <c r="H6" t="n">
-        <v>14271.92356291108</v>
+        <v>14237.18563747538</v>
       </c>
       <c r="I6" t="n">
-        <v>14271.92356291105</v>
+        <v>14237.18563747534</v>
       </c>
       <c r="J6" t="n">
-        <v>-162151.2956296819</v>
+        <v>-162186.0335551176</v>
       </c>
       <c r="K6" t="n">
-        <v>-13103.96419768094</v>
+        <v>-13103.96419768098</v>
       </c>
       <c r="L6" t="n">
-        <v>6323.753795950906</v>
+        <v>6323.753795950761</v>
       </c>
       <c r="M6" t="n">
-        <v>-117884.7569121077</v>
+        <v>-117884.7569121076</v>
       </c>
       <c r="N6" t="n">
-        <v>6323.753795950877</v>
+        <v>6323.753795950848</v>
       </c>
       <c r="O6" t="n">
-        <v>6323.753795950906</v>
+        <v>6323.753795950921</v>
       </c>
       <c r="P6" t="n">
-        <v>-13103.96419768086</v>
+        <v>-13103.96419768091</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203973</v>
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26805,10 +26805,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036089</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>80.97032626579883</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27534,19 +27534,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>35.40951857488782</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27594,13 +27594,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>65.77966136312804</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>199.4324514028582</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>323.2358268274643</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>152.7633694534029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>6.127370847427386</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>339.7216301080377</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>186.2971298607774</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>119.7207739812372</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>39.34472023205416</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -31039,13 +31039,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31063,22 +31063,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31151,16 +31151,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,19 +31197,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31221,13 +31221,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31236,7 +31236,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>369.1789913099994</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,16 +32084,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>208.6096528357818</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32303,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32315,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>416.4300581532619</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>233.9389431948335</v>
+        <v>338.1920576279218</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O24" t="n">
-        <v>301.6445156724565</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O27" t="n">
-        <v>225.4828684302377</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,25 +33968,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>285.8867128925984</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,16 +34442,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34711,10 +34711,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34790,13 +34790,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,7 +34857,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34872,7 +34872,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35015,7 +35015,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>624.9563394487576</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
-        <v>138.615755571408</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
         <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>418.3695001454049</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>226.582746865555</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,16 +35732,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>66.47561891376348</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>91.80490927281522</v>
+        <v>196.0580237059035</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O24" t="n">
-        <v>159.048271228012</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O27" t="n">
-        <v>82.88662398579324</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37227,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
         <v>450.5570744930848</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37616,25 +37616,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>151.9123054782682</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,16 +38090,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
